--- a/Bitrix24 - 2/VoIP.xlsx
+++ b/Bitrix24 - 2/VoIP.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
   <si>
     <t>Service name</t>
   </si>
@@ -204,6 +204,27 @@
   </si>
   <si>
     <t>https://www.bitrix24.com/apps/?app=informunity.autocall#install</t>
+  </si>
+  <si>
+    <t>Full name, company title, location, phone number, ZIP code, e-mail, number of extensions, IP address, what kind of browser or computer user uses, the number of links user clicks within the site, the state or country from which user accessed the site, the date and time of user`s visit, the name of user`s internet services provider, the last page user viewed before visiting site, and the pages user viewed on the site.</t>
+  </si>
+  <si>
+    <t>Info about sales scripts; leads, contacts and companies information in application; users and roles lists; The site was visited; Access date and time; Number of data sent in bytes; Origin or link from which the user came to the site; The browser used; User operating system; IP address</t>
+  </si>
+  <si>
+    <t>Call details (employee, phone, call type and etc), history of calls, users info</t>
+  </si>
+  <si>
+    <t>Dialing list with preferences, AMI connection settings, The site was visited; Access date and time; Number of data sent in bytes; Origin or link from which the user came to the site; The browser used; User operating system; IP address</t>
+  </si>
+  <si>
+    <t>Acces permissions for administrators, supervisors and operators; app settings, statistics for using application; The site was visited; Access date and time; Number of data sent in bytes; Origin or link from which the user came to the site; The browser used; User operating system; IP address</t>
+  </si>
+  <si>
+    <t>Full name, business email, IP address, browser type, demographic info, location</t>
+  </si>
+  <si>
+    <t>Full name, physical address, location, company name, email, phone number, timezone, SIP connection settings, Outgoing calls settings, number of employees, call recordings, billing information and payment method, info for notiffications;  confirmation of their place of residence, scanned copies of the user’s ID card, passport, property rental or employment contracts, utility bills; a photo of the user, holding their personal documents, and other related information</t>
   </si>
 </sst>
 </file>
@@ -257,7 +278,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,6 +288,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,7 +351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -336,9 +375,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -357,6 +393,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -674,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,6 +738,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -723,11 +770,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="180.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
       <c r="B3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -736,7 +784,9 @@
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
@@ -754,13 +804,13 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="115.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="16" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -769,7 +819,9 @@
       <c r="E4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
@@ -787,22 +839,24 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="128.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="G5" s="2" t="s">
         <v>10</v>
       </c>
@@ -819,23 +873,25 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:11" ht="159" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="G6" s="2" t="s">
         <v>10</v>
       </c>
@@ -852,23 +908,25 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:11" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="G7" s="2" t="s">
         <v>10</v>
       </c>
@@ -886,11 +944,11 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
+      <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -899,7 +957,9 @@
       <c r="E8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="G8" s="2" t="s">
         <v>10</v>
       </c>
@@ -916,23 +976,25 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:11" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="15" t="s">
         <v>47</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G9" s="2" t="s">
         <v>10</v>
       </c>
@@ -950,76 +1012,76 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:11" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="11"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
@@ -1079,8 +1141,9 @@
     <hyperlink ref="H6" r:id="rId3"/>
     <hyperlink ref="I6" r:id="rId4"/>
     <hyperlink ref="H8" r:id="rId5"/>
+    <hyperlink ref="I4" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>